--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value811.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value811.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.489733119990981</v>
+        <v>1.118269205093384</v>
       </c>
       <c r="B1">
-        <v>2.921585002004603</v>
+        <v>1.91999614238739</v>
       </c>
       <c r="C1">
-        <v>2.079761039590379</v>
+        <v>4.457293033599854</v>
       </c>
       <c r="D1">
-        <v>1.895928591248493</v>
+        <v>0.297851949930191</v>
       </c>
       <c r="E1">
-        <v>1.805210665609022</v>
+        <v>0.3427042067050934</v>
       </c>
     </row>
   </sheetData>
